--- a/biology/Zoologie/Catoblepia_berecynthia/Catoblepia_berecynthia.xlsx
+++ b/biology/Zoologie/Catoblepia_berecynthia/Catoblepia_berecynthia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catoblepia berecynthia est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des  Morphinae et du genre Catoblepia.
 </t>
@@ -511,49 +523,122 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catoblepia berecynthia a été décrit par Pieter Cramer en 1777 sous le nom initial de Papilio berecynthia[1].
-Sous-espèces
-Catoblepia berecynthia berecynthia; présent au Surinam
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia berecynthia a été décrit par Pieter Cramer en 1777 sous le nom initial de Papilio berecynthia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Catoblepia berecynthia berecynthia; présent au Surinam
 Catoblepia berecynthia adjecta (Stichel, 1906); présent en Bolivie
 Catoblepia berecynthia berecynthina (Hopffer, 1874); présent au Pérou.
 Catoblepia berecynthia halli (Bristow, 1981); présent en Guyana.
 Catoblepia berecynthia luxuriosus Stichel, 1902; présent en Colombie
 Catoblepia berecynthia meridaensis (Bristow, 1981); présent  au Venezuela.
 Catoblepia berecynthia midas (Stichel, 1908); présent en Colombie, en Équateur et au Brésil.
-Catoblepia berecynthia unditaenia (Fruhstorfer, 1907); présent au Brésil.
-Noms vernaculaires
-Catoblepia berecynthia se nomme Ocellated Owlet ou Berecynthia Giant Owl en anglais[2],[3].
+Catoblepia berecynthia unditaenia (Fruhstorfer, 1907); présent au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia berecynthia se nomme Ocellated Owlet ou Berecynthia Giant Owl en anglais,.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Catoblepia_berecynthia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Catoblepia berecynthia est un papillon d'une envergure d'environ 60 mm au bord externe des ailes antérieures concave. Le dessus des ailes est de couleur marron avec une bande orange aux ailes antérieures qui va de la moitié du bord costal à la moitié du bord externe puis forme une bande submarginale jusqu'à l'angle externe. Les ailes postérieures sont marron avec une marge orange.
 Le revers est orange marbré de nacré avec aux ailes postérieures une ligne submarginale de gros ocelles orange ou beige nacré cernés d'orange.
@@ -561,69 +646,146 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Catoblepia_berecynthia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Arecaceae[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Arecaceae.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Catoblepia_berecynthia</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catoblepia berecynthia est présent au Venezuela, en Colombie, en Bolivie, en Équateur, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane[1].
-Biotope
-Il réside dans la forêt primaire humide[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catoblepia berecynthia est présent au Venezuela, en Colombie, en Bolivie, en Équateur, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt primaire humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catoblepia_berecynthia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
